--- a/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T10:23:05+01:00</t>
+    <t>2023-12-28T11:41:33+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2071,17 +2071,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.94140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2090,27 +2090,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="548">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:41:33+01:00</t>
+    <t>2024-05-17T06:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -118,7 +118,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-servicerequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -883,7 +883,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-servicerequest|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medicationrequest)
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1034,10 +1034,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/servicerequest-category</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1224,7 +1221,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-encounter)
 </t>
   </si>
   <si>
@@ -1414,7 +1411,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1500,7 +1497,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-condition|Observation|DiagnosticReport|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-documentreference)
 </t>
   </si>
   <si>
@@ -1586,7 +1583,7 @@
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -2071,17 +2068,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2090,27 +2087,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.6171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6632,11 +6629,9 @@
       <c r="X39" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Y39" s="2"/>
+      <c r="Z39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6672,10 +6667,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>316</v>
@@ -6686,10 +6681,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6715,10 +6710,10 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6726,7 +6721,7 @@
         <v>82</v>
       </c>
       <c r="Q40" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>82</v>
@@ -6750,11 +6745,11 @@
         <v>194</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6771,7 +6766,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6786,16 +6781,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6803,10 +6798,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6829,26 +6824,26 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="O41" t="s" s="2">
+      <c r="P41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="P41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="R41" t="s" s="2">
         <v>82</v>
       </c>
@@ -6892,7 +6887,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6907,13 +6902,13 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -6924,14 +6919,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6953,13 +6948,13 @@
         <v>201</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6988,11 +6983,11 @@
         <v>322</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>352</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7009,7 +7004,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7024,31 +7019,31 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7070,13 +7065,13 @@
         <v>201</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7105,11 +7100,11 @@
         <v>322</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7126,7 +7121,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7135,7 +7130,7 @@
         <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>102</v>
@@ -7144,24 +7139,24 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7184,17 +7179,17 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7243,7 +7238,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7261,10 +7256,10 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>82</v>
@@ -7275,10 +7270,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7301,13 +7296,13 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7358,7 +7353,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>90</v>
@@ -7373,31 +7368,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>381</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7416,13 +7411,13 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7473,7 +7468,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7488,31 +7483,31 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7531,13 +7526,13 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7588,7 +7583,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7603,27 +7598,27 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7646,13 +7641,13 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7682,11 +7677,11 @@
         <v>322</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7703,7 +7698,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7724,25 +7719,25 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>409</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7761,13 +7756,13 @@
         <v>91</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7818,7 +7813,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7833,31 +7828,31 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>419</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7876,16 +7871,16 @@
         <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7935,7 +7930,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7950,31 +7945,31 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>430</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7996,13 +7991,13 @@
         <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8031,11 +8026,11 @@
         <v>322</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8052,7 +8047,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8067,16 +8062,16 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8084,14 +8079,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8110,16 +8105,16 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8169,7 +8164,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8184,16 +8179,16 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>450</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8201,10 +8196,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8230,10 +8225,10 @@
         <v>201</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8263,11 +8258,11 @@
         <v>322</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8284,7 +8279,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8305,10 +8300,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8316,10 +8311,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8342,13 +8337,13 @@
         <v>91</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8399,7 +8394,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8420,10 +8415,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8431,10 +8426,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8460,13 +8455,13 @@
         <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8495,11 +8490,11 @@
         <v>322</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>466</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8516,7 +8511,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8531,16 +8526,16 @@
         <v>102</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AL55" t="s" s="2">
+      <c r="AM55" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8548,10 +8543,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8574,16 +8569,16 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8633,7 +8628,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8648,16 +8643,16 @@
         <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AL56" t="s" s="2">
+      <c r="AM56" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="AM56" t="s" s="2">
-        <v>478</v>
-      </c>
       <c r="AN56" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8665,10 +8660,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8691,13 +8686,13 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8748,7 +8743,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8763,13 +8758,13 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8780,14 +8775,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8806,16 +8801,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8865,7 +8860,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8880,13 +8875,13 @@
         <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -8897,10 +8892,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8923,16 +8918,16 @@
         <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8982,7 +8977,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9000,10 +8995,10 @@
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9014,14 +9009,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9043,16 +9038,16 @@
         <v>201</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="N60" t="s" s="2">
+      <c r="O60" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>507</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9080,11 +9075,11 @@
         <v>322</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9101,7 +9096,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9119,24 +9114,24 @@
         <v>82</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AM60" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>511</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9159,13 +9154,13 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>51</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9216,7 +9211,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9231,27 +9226,27 @@
         <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>517</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9363,10 +9358,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9480,10 +9475,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9506,16 +9501,16 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9565,7 +9560,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9586,7 +9581,7 @@
         <v>133</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9597,10 +9592,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9623,13 +9618,13 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9680,7 +9675,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9701,7 +9696,7 @@
         <v>133</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9712,10 +9707,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9738,13 +9733,13 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9795,7 +9790,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>90</v>
@@ -9816,7 +9811,7 @@
         <v>133</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -9827,10 +9822,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9856,10 +9851,10 @@
         <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9910,7 +9905,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9928,10 +9923,10 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -9942,10 +9937,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9968,16 +9963,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>545</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>546</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10027,7 +10022,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10042,13 +10037,13 @@
         <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>

--- a/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T06:38:56+00:00</t>
+    <t>2024-12-18T08:35:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -535,7 +535,7 @@
     <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -965,7 +965,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1117,7 +1117,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1473,7 +1473,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1507,7 +1507,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:35:04+00:00</t>
+    <t>2025-05-22T07:56:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1117,7 +1117,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1411,7 +1411,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization|CareTeam|HealthcareService|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-patient|Device|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson)
 </t>
   </si>
   <si>
@@ -2068,15 +2068,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.8828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.35546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2087,27 +2087,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="160.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
+++ b/ig/ch-orf/StructureDefinition-ch-orf-servicerequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T07:56:23+00:00</t>
+    <t>2025-12-16T09:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -375,7 +375,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -674,7 +674,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -771,7 +771,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -839,7 +839,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -909,7 +909,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1120,7 +1120,7 @@
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1157,7 +1157,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1294,7 +1294,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1389,7 +1389,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1454,7 +1454,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1479,7 +1479,7 @@
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1548,7 +1548,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1573,7 +1573,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1614,7 +1614,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1651,7 +1651,7 @@
     <t>ServiceRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1719,7 +1719,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -3163,7 +3163,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>171</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>221</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>247</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>255</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>256</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>297</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>308</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>326</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>372</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>419</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>478</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>511</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>531</v>
       </c>
@@ -10054,12 +10054,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO68">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
